--- a/INVENTARIOS TIENDA/11-07-2022/DAVID CARGA CONVERSE 5 BULTOS.xlsx
+++ b/INVENTARIOS TIENDA/11-07-2022/DAVID CARGA CONVERSE 5 BULTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABDALLA\Desktop\INVENTARIOS\INVENTARIOS TIENDA\11-07-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A06B03F6-0234-43EA-9EDF-49A23A7E7DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9391F8E6-3792-4F92-B4C8-B11FBD054BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E64410FE-DC8B-40AA-817C-FB18695077D3}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>0005700003577CI11</t>
   </si>
   <si>
-    <t>CVB34BT-20002BOTIN CONVERSE NEGRO</t>
-  </si>
-  <si>
     <t>CVB35BT-20002</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>CVB44BT-30003</t>
+  </si>
+  <si>
+    <t>CVB34BT-20002</t>
   </si>
 </sst>
 </file>
@@ -623,13 +623,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82239755-9069-47EB-94BF-7A2A3F4DE3D7}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.85546875" customWidth="1"/>
   </cols>
@@ -760,6 +760,9 @@
       <c r="V2" t="s">
         <v>40</v>
       </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
       <c r="X2">
         <v>25998807</v>
       </c>
@@ -767,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="Z2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -816,6 +819,9 @@
       <c r="V3" t="s">
         <v>40</v>
       </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
       <c r="X3">
         <v>25998807</v>
       </c>
@@ -823,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="Z3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -872,6 +878,9 @@
       <c r="V4" t="s">
         <v>40</v>
       </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
       <c r="X4">
         <v>25998807</v>
       </c>
@@ -879,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="Z4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -928,6 +937,9 @@
       <c r="V5" t="s">
         <v>40</v>
       </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
       <c r="X5">
         <v>25998807</v>
       </c>
@@ -935,7 +947,7 @@
         <v>5</v>
       </c>
       <c r="Z5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -984,6 +996,9 @@
       <c r="V6" t="s">
         <v>40</v>
       </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
       <c r="X6">
         <v>25998807</v>
       </c>
@@ -991,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="Z6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1040,6 +1055,9 @@
       <c r="V7" t="s">
         <v>40</v>
       </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
       <c r="X7">
         <v>25998807</v>
       </c>
@@ -1047,15 +1065,15 @@
         <v>5</v>
       </c>
       <c r="Z7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -1076,7 +1094,7 @@
         <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>34</v>
@@ -1096,6 +1114,9 @@
       <c r="V8" t="s">
         <v>40</v>
       </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
       <c r="X8">
         <v>25998807</v>
       </c>
@@ -1103,15 +1124,15 @@
         <v>5</v>
       </c>
       <c r="Z8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -1132,7 +1153,7 @@
         <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>35</v>
@@ -1152,6 +1173,9 @@
       <c r="V9" t="s">
         <v>40</v>
       </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
       <c r="X9">
         <v>25998807</v>
       </c>
@@ -1159,15 +1183,15 @@
         <v>5</v>
       </c>
       <c r="Z9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -1188,7 +1212,7 @@
         <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>36</v>
@@ -1208,6 +1232,9 @@
       <c r="V10" t="s">
         <v>40</v>
       </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
       <c r="X10">
         <v>25998807</v>
       </c>
@@ -1215,15 +1242,15 @@
         <v>5</v>
       </c>
       <c r="Z10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -1244,7 +1271,7 @@
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>37</v>
@@ -1264,6 +1291,9 @@
       <c r="V11" t="s">
         <v>40</v>
       </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
       <c r="X11">
         <v>25998807</v>
       </c>
@@ -1271,15 +1301,15 @@
         <v>5</v>
       </c>
       <c r="Z11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -1300,7 +1330,7 @@
         <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12">
         <v>38</v>
@@ -1320,6 +1350,9 @@
       <c r="V12" t="s">
         <v>40</v>
       </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
       <c r="X12">
         <v>25998807</v>
       </c>
@@ -1327,15 +1360,15 @@
         <v>5</v>
       </c>
       <c r="Z12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -1356,7 +1389,7 @@
         <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>39</v>
@@ -1376,6 +1409,9 @@
       <c r="V13" t="s">
         <v>40</v>
       </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
       <c r="X13">
         <v>25998807</v>
       </c>
@@ -1383,15 +1419,15 @@
         <v>5</v>
       </c>
       <c r="Z13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -1412,7 +1448,7 @@
         <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14">
         <v>40</v>
@@ -1432,6 +1468,9 @@
       <c r="V14" t="s">
         <v>40</v>
       </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
       <c r="X14">
         <v>25998807</v>
       </c>
@@ -1439,15 +1478,15 @@
         <v>5</v>
       </c>
       <c r="Z14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -1468,7 +1507,7 @@
         <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15">
         <v>41</v>
@@ -1488,6 +1527,9 @@
       <c r="V15" t="s">
         <v>40</v>
       </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
       <c r="X15">
         <v>25998807</v>
       </c>
@@ -1495,15 +1537,15 @@
         <v>5</v>
       </c>
       <c r="Z15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -1524,7 +1566,7 @@
         <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>42</v>
@@ -1544,6 +1586,9 @@
       <c r="V16" t="s">
         <v>40</v>
       </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
       <c r="X16">
         <v>25998807</v>
       </c>
@@ -1551,15 +1596,15 @@
         <v>5</v>
       </c>
       <c r="Z16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -1580,7 +1625,7 @@
         <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17">
         <v>43</v>
@@ -1600,6 +1645,9 @@
       <c r="V17" t="s">
         <v>40</v>
       </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
       <c r="X17">
         <v>25998807</v>
       </c>
@@ -1607,15 +1655,15 @@
         <v>5</v>
       </c>
       <c r="Z17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -1636,7 +1684,7 @@
         <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>44</v>
@@ -1656,6 +1704,9 @@
       <c r="V18" t="s">
         <v>40</v>
       </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
       <c r="X18">
         <v>25998807</v>
       </c>
@@ -1663,15 +1714,15 @@
         <v>5</v>
       </c>
       <c r="Z18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -1692,7 +1743,7 @@
         <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19">
         <v>34</v>
@@ -1712,6 +1763,9 @@
       <c r="V19" t="s">
         <v>40</v>
       </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
       <c r="X19">
         <v>25998807</v>
       </c>
@@ -1719,15 +1773,15 @@
         <v>5</v>
       </c>
       <c r="Z19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -1748,7 +1802,7 @@
         <v>38</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20">
         <v>35</v>
@@ -1768,6 +1822,9 @@
       <c r="V20" t="s">
         <v>40</v>
       </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
       <c r="X20">
         <v>25998807</v>
       </c>
@@ -1775,15 +1832,15 @@
         <v>5</v>
       </c>
       <c r="Z20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -1804,7 +1861,7 @@
         <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21">
         <v>36</v>
@@ -1824,6 +1881,9 @@
       <c r="V21" t="s">
         <v>40</v>
       </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
       <c r="X21">
         <v>25998807</v>
       </c>
@@ -1831,15 +1891,15 @@
         <v>5</v>
       </c>
       <c r="Z21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -1860,7 +1920,7 @@
         <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22">
         <v>37</v>
@@ -1880,6 +1940,9 @@
       <c r="V22" t="s">
         <v>40</v>
       </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
       <c r="X22">
         <v>25998807</v>
       </c>
@@ -1887,15 +1950,15 @@
         <v>5</v>
       </c>
       <c r="Z22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -1916,7 +1979,7 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J23">
         <v>38</v>
@@ -1936,6 +1999,9 @@
       <c r="V23" t="s">
         <v>40</v>
       </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
       <c r="X23">
         <v>25998807</v>
       </c>
@@ -1943,15 +2009,15 @@
         <v>5</v>
       </c>
       <c r="Z23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -1972,7 +2038,7 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24">
         <v>39</v>
@@ -1992,6 +2058,9 @@
       <c r="V24" t="s">
         <v>40</v>
       </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
       <c r="X24">
         <v>25998807</v>
       </c>
@@ -1999,15 +2068,15 @@
         <v>5</v>
       </c>
       <c r="Z24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -2028,7 +2097,7 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25">
         <v>40</v>
@@ -2048,6 +2117,9 @@
       <c r="V25" t="s">
         <v>40</v>
       </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
       <c r="X25">
         <v>25998807</v>
       </c>
@@ -2055,15 +2127,15 @@
         <v>5</v>
       </c>
       <c r="Z25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
@@ -2084,7 +2156,7 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J26">
         <v>40</v>
@@ -2104,6 +2176,9 @@
       <c r="V26" t="s">
         <v>40</v>
       </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
       <c r="X26">
         <v>25998807</v>
       </c>
@@ -2111,15 +2186,15 @@
         <v>5</v>
       </c>
       <c r="Z26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
@@ -2140,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J27">
         <v>41</v>
@@ -2160,6 +2235,9 @@
       <c r="V27" t="s">
         <v>40</v>
       </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
       <c r="X27">
         <v>25998807</v>
       </c>
@@ -2167,15 +2245,15 @@
         <v>5</v>
       </c>
       <c r="Z27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -2196,7 +2274,7 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J28">
         <v>42</v>
@@ -2216,6 +2294,9 @@
       <c r="V28" t="s">
         <v>40</v>
       </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
       <c r="X28">
         <v>25998807</v>
       </c>
@@ -2223,15 +2304,15 @@
         <v>5</v>
       </c>
       <c r="Z28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -2252,7 +2333,7 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J29">
         <v>43</v>
@@ -2272,6 +2353,9 @@
       <c r="V29" t="s">
         <v>40</v>
       </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
       <c r="X29">
         <v>25998807</v>
       </c>
@@ -2279,15 +2363,15 @@
         <v>5</v>
       </c>
       <c r="Z29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -2308,7 +2392,7 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J30">
         <v>44</v>
@@ -2328,6 +2412,9 @@
       <c r="V30" t="s">
         <v>40</v>
       </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
       <c r="X30">
         <v>25998807</v>
       </c>
@@ -2335,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="Z30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
